--- a/DoubleLinkedList/Data.xlsx
+++ b/DoubleLinkedList/Data.xlsx
@@ -163,26 +163,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -191,8 +171,342 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mitjana d'iteracions</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17268</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18088</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18670</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19508</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20829</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27232</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28280</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29078</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32711</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34800</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34314</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37458</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37516</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38106</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEFD-43B3-81E4-26CBFE99EB1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Mitjana d'iteracions</c:v>
           </c:tx>
@@ -208,6 +522,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$2:$A$51</c:f>
@@ -529,7 +857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6E4A-4F19-9A0F-C87A73ABC157}"/>
+              <c16:uniqueId val="{00000001-EEFD-43B3-81E4-26CBFE99EB1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,26 +929,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -722,26 +1030,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -778,33 +1066,11 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1507,47 +1773,928 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Double Linked List</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mitjana iteracions</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17268</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18088</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18670</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19508</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20829</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27232</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28280</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29078</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32711</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34800</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34314</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37458</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37516</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38106</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B898-4961-B46A-AF418E938B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>STD</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>315.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636.53700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950.92600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1284.77</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1575.05</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1852.08</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2219.65</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2590.27</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2848.32</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3207.58</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3454.07</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3825.81</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>4287.76</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>4398.91</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>4647.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>5006.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>5514.73</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>5731.08</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>6079.7</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>6283.52</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6649.34</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7093.48</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>7375.38</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>7795.14</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>8024.33</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>8118.94</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>8937.48</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>8895.01</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>9298.9699999999993</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>9620.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>10151.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>10111.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>10475.6</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>10604.9</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>10831.4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>11572.1</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>11998.5</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>12091.3</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>12853.2</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>13106.8</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>13418.6</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>13628.9</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>13255.8</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>14248.7</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>14547.6</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>14882.8</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>15421.8</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>16042.2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>16229.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B898-4961-B46A-AF418E938B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="1329501872"/>
+        <c:axId val="1329503536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1329501872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Dimensió de la taula</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329503536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1329503536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329501872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2103,536 +3250,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2676,6 +3307,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2953,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
